--- a/converter/data/xlsx/18.9. A SMJENA.XLSX
+++ b/converter/data/xlsx/18.9. A SMJENA.XLSX
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RASPORED 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
@@ -355,8 +350,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3278,6 +3273,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="110" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3305,47 +3333,14 @@
     <xf numFmtId="0" fontId="32" fillId="20" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="2"/>
     <cellStyle name="Normalno 7" xfId="4"/>
+    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 2" xfId="1"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
@@ -3396,7 +3391,7 @@
         <xdr:cNvPr id="7" name="Ravni poveznik sa strelicom 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,7 +3444,7 @@
         <xdr:cNvPr id="11" name="Ravni poveznik sa strelicom 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,7 +3497,7 @@
         <xdr:cNvPr id="13" name="Ravni poveznik sa strelicom 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3555,7 +3550,7 @@
         <xdr:cNvPr id="24" name="Ravni poveznik sa strelicom 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3608,7 +3603,7 @@
         <xdr:cNvPr id="8" name="Ravni poveznik sa strelicom 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3656,7 @@
         <xdr:cNvPr id="14" name="Ravni poveznik sa strelicom 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3714,7 +3709,7 @@
         <xdr:cNvPr id="16" name="Ravni poveznik sa strelicom 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3762,7 @@
         <xdr:cNvPr id="18" name="Ravni poveznik sa strelicom 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3820,7 +3815,7 @@
         <xdr:cNvPr id="20" name="Ravni poveznik sa strelicom 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3873,7 +3868,7 @@
         <xdr:cNvPr id="25" name="Ravni poveznik sa strelicom 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3926,7 +3921,7 @@
         <xdr:cNvPr id="29" name="Ravni poveznik sa strelicom 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3979,7 +3974,7 @@
         <xdr:cNvPr id="31" name="Ravni poveznik sa strelicom 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4032,7 +4027,7 @@
         <xdr:cNvPr id="33" name="Ravni poveznik sa strelicom 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,7 +4080,7 @@
         <xdr:cNvPr id="35" name="Ravni poveznik sa strelicom 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4138,7 +4133,7 @@
         <xdr:cNvPr id="37" name="Ravni poveznik sa strelicom 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4191,7 +4186,7 @@
         <xdr:cNvPr id="39" name="Ravni poveznik sa strelicom 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4244,7 +4239,7 @@
         <xdr:cNvPr id="41" name="Ravni poveznik sa strelicom 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4297,7 +4292,7 @@
         <xdr:cNvPr id="45" name="Ravni poveznik sa strelicom 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4350,7 +4345,7 @@
         <xdr:cNvPr id="49" name="Ravni poveznik sa strelicom 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4403,7 +4398,7 @@
         <xdr:cNvPr id="53" name="Ravni poveznik sa strelicom 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4456,7 +4451,7 @@
         <xdr:cNvPr id="55" name="Ravni poveznik sa strelicom 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4504,7 @@
         <xdr:cNvPr id="57" name="Ravni poveznik sa strelicom 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4562,7 +4557,7 @@
         <xdr:cNvPr id="59" name="Ravni poveznik sa strelicom 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4615,7 +4610,7 @@
         <xdr:cNvPr id="67" name="Ravni poveznik sa strelicom 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4668,7 +4663,7 @@
         <xdr:cNvPr id="69" name="Ravni poveznik sa strelicom 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4721,7 +4716,7 @@
         <xdr:cNvPr id="71" name="Ravni poveznik sa strelicom 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4774,7 +4769,7 @@
         <xdr:cNvPr id="73" name="Ravni poveznik sa strelicom 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4827,7 +4822,7 @@
         <xdr:cNvPr id="75" name="Ravni poveznik sa strelicom 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4880,7 +4875,7 @@
         <xdr:cNvPr id="79" name="Ravni poveznik sa strelicom 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4933,7 +4928,7 @@
         <xdr:cNvPr id="81" name="Ravni poveznik sa strelicom 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4986,7 +4981,7 @@
         <xdr:cNvPr id="85" name="Ravni poveznik sa strelicom 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5039,7 +5034,7 @@
         <xdr:cNvPr id="87" name="Ravni poveznik sa strelicom 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5092,7 +5087,7 @@
         <xdr:cNvPr id="89" name="Ravni poveznik sa strelicom 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5145,7 +5140,7 @@
         <xdr:cNvPr id="91" name="Ravni poveznik sa strelicom 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5198,7 +5193,7 @@
         <xdr:cNvPr id="93" name="Ravni poveznik sa strelicom 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5251,7 +5246,7 @@
         <xdr:cNvPr id="95" name="Ravni poveznik sa strelicom 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5304,7 +5299,7 @@
         <xdr:cNvPr id="48" name="Ravni poveznik sa strelicom 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5357,7 +5352,7 @@
         <xdr:cNvPr id="44" name="Ravni poveznik sa strelicom 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5405,7 @@
         <xdr:cNvPr id="50" name="Ravni poveznik sa strelicom 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5463,7 +5458,7 @@
         <xdr:cNvPr id="52" name="Ravni poveznik sa strelicom 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5516,7 +5511,7 @@
         <xdr:cNvPr id="54" name="Ravni poveznik sa strelicom 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5569,7 +5564,7 @@
         <xdr:cNvPr id="58" name="Ravni poveznik sa strelicom 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5622,7 +5617,7 @@
         <xdr:cNvPr id="61" name="Ravni poveznik sa strelicom 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5675,7 +5670,7 @@
         <xdr:cNvPr id="65" name="Ravni poveznik sa strelicom 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5728,7 +5723,7 @@
         <xdr:cNvPr id="72" name="Ravni poveznik sa strelicom 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5781,7 +5776,7 @@
         <xdr:cNvPr id="83" name="Ravni poveznik sa strelicom 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5834,7 +5829,7 @@
         <xdr:cNvPr id="94" name="Ravni poveznik sa strelicom 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5887,7 +5882,7 @@
         <xdr:cNvPr id="99" name="Ravni poveznik sa strelicom 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,11 +6387,246 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>296864</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>191294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>298452</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Ravni poveznik sa strelicom 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="12555142" y="1065610"/>
+          <a:ext cx="178593" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Ravni poveznik sa strelicom 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="12727781" y="964407"/>
+          <a:ext cx="273844" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>345282</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Ravni poveznik sa strelicom 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="16121063" y="1476375"/>
+          <a:ext cx="666750" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Ravni poveznik sa strelicom 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15609094" y="5238750"/>
+          <a:ext cx="666750" cy="59531"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>320674</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>322262</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143669</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Ravni poveznik sa strelicom 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="18055828" y="4935141"/>
+          <a:ext cx="202406" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6438,7 +6668,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6470,10 +6700,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6505,7 +6734,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6681,14 +6909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -6724,99 +6952,99 @@
     <col min="36" max="36" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="407" t="s">
+    <row r="1" spans="1:39" ht="27" thickBot="1">
+      <c r="A1" s="399" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="407"/>
-      <c r="C1" s="407"/>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
-      <c r="N1" s="407"/>
-      <c r="O1" s="407"/>
-      <c r="P1" s="407"/>
-      <c r="Q1" s="407"/>
-      <c r="R1" s="407"/>
-      <c r="S1" s="407"/>
-      <c r="T1" s="407"/>
-      <c r="U1" s="407"/>
-      <c r="V1" s="407"/>
-      <c r="W1" s="407"/>
-      <c r="X1" s="407"/>
-      <c r="Y1" s="407"/>
-      <c r="Z1" s="407"/>
-      <c r="AA1" s="407"/>
-      <c r="AB1" s="407"/>
-      <c r="AC1" s="407"/>
-      <c r="AD1" s="407"/>
-      <c r="AE1" s="407"/>
-      <c r="AF1" s="407"/>
-      <c r="AG1" s="407"/>
-      <c r="AH1" s="407"/>
-      <c r="AI1" s="407"/>
-      <c r="AJ1" s="407"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
+      <c r="T1" s="399"/>
+      <c r="U1" s="399"/>
+      <c r="V1" s="399"/>
+      <c r="W1" s="399"/>
+      <c r="X1" s="399"/>
+      <c r="Y1" s="399"/>
+      <c r="Z1" s="399"/>
+      <c r="AA1" s="399"/>
+      <c r="AB1" s="399"/>
+      <c r="AC1" s="399"/>
+      <c r="AD1" s="399"/>
+      <c r="AE1" s="399"/>
+      <c r="AF1" s="399"/>
+      <c r="AG1" s="399"/>
+      <c r="AH1" s="399"/>
+      <c r="AI1" s="399"/>
+      <c r="AJ1" s="399"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="18">
       <c r="A2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="408" t="s">
+      <c r="B2" s="400" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="411" t="s">
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="402"/>
+      <c r="I2" s="403" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="409"/>
-      <c r="K2" s="409"/>
-      <c r="L2" s="409"/>
-      <c r="M2" s="409"/>
-      <c r="N2" s="409"/>
-      <c r="O2" s="412"/>
-      <c r="P2" s="411" t="s">
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="403" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="409"/>
-      <c r="R2" s="409"/>
-      <c r="S2" s="409"/>
-      <c r="T2" s="409"/>
-      <c r="U2" s="409"/>
-      <c r="V2" s="412"/>
-      <c r="W2" s="411" t="s">
+      <c r="Q2" s="401"/>
+      <c r="R2" s="401"/>
+      <c r="S2" s="401"/>
+      <c r="T2" s="401"/>
+      <c r="U2" s="401"/>
+      <c r="V2" s="404"/>
+      <c r="W2" s="403" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="409"/>
-      <c r="Y2" s="409"/>
-      <c r="Z2" s="409"/>
-      <c r="AA2" s="409"/>
-      <c r="AB2" s="409"/>
-      <c r="AC2" s="410"/>
-      <c r="AD2" s="408" t="s">
+      <c r="X2" s="401"/>
+      <c r="Y2" s="401"/>
+      <c r="Z2" s="401"/>
+      <c r="AA2" s="401"/>
+      <c r="AB2" s="401"/>
+      <c r="AC2" s="402"/>
+      <c r="AD2" s="400" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="413"/>
-      <c r="AF2" s="413"/>
-      <c r="AG2" s="413"/>
-      <c r="AH2" s="413"/>
-      <c r="AI2" s="413"/>
-      <c r="AJ2" s="414"/>
+      <c r="AE2" s="405"/>
+      <c r="AF2" s="405"/>
+      <c r="AG2" s="405"/>
+      <c r="AH2" s="405"/>
+      <c r="AI2" s="405"/>
+      <c r="AJ2" s="406"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6927,7 +7155,7 @@
       </c>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:39" s="292" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" s="292" customFormat="1" ht="19.5" thickTop="1">
       <c r="A4" s="293" t="s">
         <v>81</v>
       </c>
@@ -6962,7 +7190,9 @@
         <v>2</v>
       </c>
       <c r="V4" s="287"/>
-      <c r="W4" s="289"/>
+      <c r="W4" s="289">
+        <v>20</v>
+      </c>
       <c r="X4" s="287"/>
       <c r="Y4" s="287">
         <v>25</v>
@@ -6980,7 +7210,7 @@
       <c r="AJ4" s="295"/>
       <c r="AK4" s="296"/>
     </row>
-    <row r="5" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
       <c r="A5" s="205" t="s">
         <v>36</v>
       </c>
@@ -7059,7 +7289,7 @@
       <c r="AJ5" s="210"/>
       <c r="AK5" s="20"/>
     </row>
-    <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="22.5" customHeight="1">
       <c r="A6" s="115" t="s">
         <v>37</v>
       </c>
@@ -7100,7 +7330,9 @@
         <v>16</v>
       </c>
       <c r="AD6" s="60"/>
-      <c r="AE6" s="356"/>
+      <c r="AE6" s="356">
+        <v>2</v>
+      </c>
       <c r="AF6" s="119" t="s">
         <v>26</v>
       </c>
@@ -7116,7 +7348,7 @@
       <c r="AJ6" s="62"/>
       <c r="AK6" s="20"/>
     </row>
-    <row r="7" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="24" customHeight="1">
       <c r="A7" s="206" t="s">
         <v>40</v>
       </c>
@@ -7175,7 +7407,7 @@
       <c r="AJ7" s="52"/>
       <c r="AK7" s="13"/>
     </row>
-    <row r="8" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="26.25" customHeight="1">
       <c r="A8" s="118" t="s">
         <v>32</v>
       </c>
@@ -7191,8 +7423,8 @@
       <c r="K8" s="103"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
-      <c r="N8" s="405"/>
-      <c r="O8" s="406"/>
+      <c r="N8" s="397"/>
+      <c r="O8" s="398"/>
       <c r="P8" s="179"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
@@ -7246,7 +7478,7 @@
       </c>
       <c r="AK8" s="101"/>
     </row>
-    <row r="9" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="22.5" customHeight="1">
       <c r="A9" s="115" t="s">
         <v>46</v>
       </c>
@@ -7264,8 +7496,8 @@
       <c r="K9" s="41"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
-      <c r="N9" s="405"/>
-      <c r="O9" s="406"/>
+      <c r="N9" s="397"/>
+      <c r="O9" s="398"/>
       <c r="P9" s="348"/>
       <c r="Q9" s="349"/>
       <c r="R9" s="349"/>
@@ -7319,7 +7551,7 @@
       </c>
       <c r="AK9" s="20"/>
     </row>
-    <row r="10" spans="1:39" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="24.75" customHeight="1" thickBot="1">
       <c r="A10" s="255" t="s">
         <v>5</v>
       </c>
@@ -7388,7 +7620,7 @@
       </c>
       <c r="AK10" s="101"/>
     </row>
-    <row r="11" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="23.25" customHeight="1">
       <c r="A11" s="115" t="s">
         <v>6</v>
       </c>
@@ -7439,7 +7671,7 @@
       <c r="AJ11" s="44"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="23.25" customHeight="1">
       <c r="A12" s="115"/>
       <c r="B12" s="274"/>
       <c r="C12" s="49"/>
@@ -7486,7 +7718,7 @@
       <c r="AJ12" s="44"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="23.25" customHeight="1">
       <c r="A13" s="115" t="s">
         <v>68</v>
       </c>
@@ -7539,12 +7771,12 @@
       <c r="AJ13" s="44"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="23.25" customHeight="1">
       <c r="A14" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="399"/>
-      <c r="C14" s="400"/>
+      <c r="B14" s="410"/>
+      <c r="C14" s="411"/>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
         <v>59</v>
@@ -7552,7 +7784,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="73"/>
-      <c r="I14" s="416" t="s">
+      <c r="I14" s="396" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="324" t="s">
@@ -7594,7 +7826,7 @@
       <c r="AJ14" s="44"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="23.25" customHeight="1">
       <c r="A15" s="115" t="s">
         <v>7</v>
       </c>
@@ -7643,7 +7875,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="22.5" customHeight="1">
       <c r="A16" s="118" t="s">
         <v>8</v>
       </c>
@@ -7692,7 +7924,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="21.75" customHeight="1">
       <c r="A17" s="118" t="s">
         <v>9</v>
       </c>
@@ -7741,7 +7973,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="21" customHeight="1">
       <c r="A18" s="118" t="s">
         <v>34</v>
       </c>
@@ -7779,12 +8011,14 @@
       <c r="AG18" s="37"/>
       <c r="AH18" s="37"/>
       <c r="AI18" s="37"/>
-      <c r="AJ18" s="44"/>
+      <c r="AJ18" s="44">
+        <v>2</v>
+      </c>
       <c r="AK18" s="13"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" ht="23.25" customHeight="1" thickBot="1">
       <c r="A19" s="255" t="s">
         <v>35</v>
       </c>
@@ -7838,7 +8072,9 @@
       <c r="AE19" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AF19" s="57"/>
+      <c r="AF19" s="57">
+        <v>2</v>
+      </c>
       <c r="AG19" s="57"/>
       <c r="AH19" s="57"/>
       <c r="AI19" s="57"/>
@@ -7847,7 +8083,7 @@
       <c r="AL19" s="13"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="21.75" customHeight="1">
       <c r="A20" s="116"/>
       <c r="B20" s="51"/>
       <c r="C20" s="47"/>
@@ -7892,7 +8128,7 @@
       <c r="AL20" s="13"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="21.75" customHeight="1">
       <c r="A21" s="116" t="s">
         <v>62</v>
       </c>
@@ -7943,7 +8179,7 @@
       <c r="AL21" s="13"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="21.75" customHeight="1">
       <c r="A22" s="116" t="s">
         <v>61</v>
       </c>
@@ -7990,7 +8226,7 @@
       <c r="AL22" s="13"/>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="21.75" customHeight="1">
       <c r="A23" s="116" t="s">
         <v>60</v>
       </c>
@@ -8049,7 +8285,7 @@
       <c r="AL23" s="13"/>
       <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="1:39" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="21.75" customHeight="1" thickBot="1">
       <c r="A24" s="255" t="s">
         <v>31</v>
       </c>
@@ -8120,7 +8356,7 @@
       <c r="AL24" s="13"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="A25" s="118" t="s">
         <v>74</v>
       </c>
@@ -8173,7 +8409,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="24" customHeight="1">
       <c r="A26" s="116" t="s">
         <v>75</v>
       </c>
@@ -8215,7 +8451,7 @@
       <c r="AK26" s="101"/>
       <c r="AL26" s="1"/>
     </row>
-    <row r="27" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="24" customHeight="1">
       <c r="A27" s="256" t="s">
         <v>76</v>
       </c>
@@ -8231,30 +8467,30 @@
       <c r="K27" s="41"/>
       <c r="L27" s="180"/>
       <c r="M27" s="153"/>
-      <c r="N27" s="402" t="s">
+      <c r="N27" s="413" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="404"/>
+      <c r="O27" s="415"/>
       <c r="P27" s="179"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="85"/>
-      <c r="S27" s="402" t="s">
+      <c r="S27" s="413" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="403"/>
-      <c r="U27" s="402" t="s">
+      <c r="T27" s="414"/>
+      <c r="U27" s="413" t="s">
         <v>85</v>
       </c>
-      <c r="V27" s="404"/>
+      <c r="V27" s="415"/>
       <c r="W27" s="178"/>
       <c r="X27" s="179"/>
       <c r="Y27" s="180"/>
       <c r="Z27" s="179"/>
       <c r="AA27" s="179"/>
-      <c r="AB27" s="402" t="s">
+      <c r="AB27" s="413" t="s">
         <v>85</v>
       </c>
-      <c r="AC27" s="404"/>
+      <c r="AC27" s="415"/>
       <c r="AD27" s="178"/>
       <c r="AE27" s="41"/>
       <c r="AF27" s="145"/>
@@ -8265,7 +8501,7 @@
       <c r="AK27" s="15"/>
       <c r="AL27" s="15"/>
     </row>
-    <row r="28" spans="1:39" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="24" customHeight="1" thickBot="1">
       <c r="A28" s="116" t="s">
         <v>77</v>
       </c>
@@ -8323,7 +8559,7 @@
       <c r="AK28" s="15"/>
       <c r="AL28" s="15"/>
     </row>
-    <row r="29" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="24" customHeight="1">
       <c r="A29" s="395" t="s">
         <v>42</v>
       </c>
@@ -8365,7 +8601,7 @@
       <c r="AK29" s="15"/>
       <c r="AL29" s="15"/>
     </row>
-    <row r="30" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="21.75" customHeight="1">
       <c r="A30" s="118" t="s">
         <v>41</v>
       </c>
@@ -8421,7 +8657,7 @@
       <c r="AK30" s="15"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="22.5" customHeight="1">
       <c r="A31" s="118" t="s">
         <v>11</v>
       </c>
@@ -8493,7 +8729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="23.25" customHeight="1" thickBot="1">
       <c r="A32" s="115" t="s">
         <v>13</v>
       </c>
@@ -8541,7 +8777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="20.25" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>15</v>
       </c>
@@ -8625,7 +8861,7 @@
       <c r="AK33" s="20"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="21" customHeight="1">
       <c r="A34" s="118" t="s">
         <v>16</v>
       </c>
@@ -8701,7 +8937,7 @@
       </c>
       <c r="AL34" s="1"/>
     </row>
-    <row r="35" spans="1:38" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" ht="24" customHeight="1" thickBot="1">
       <c r="A35" s="16" t="s">
         <v>28</v>
       </c>
@@ -8785,7 +9021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="23.25" customHeight="1">
       <c r="A36" s="207" t="s">
         <v>54</v>
       </c>
@@ -8841,7 +9077,7 @@
       </c>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="22.5" customHeight="1">
       <c r="A37" s="115" t="s">
         <v>53</v>
       </c>
@@ -8891,7 +9127,7 @@
       <c r="AK37" s="17"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="1:38" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" ht="24" customHeight="1" thickBot="1">
       <c r="A38" s="118" t="s">
         <v>33</v>
       </c>
@@ -8952,7 +9188,7 @@
       <c r="AJ38" s="82"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="24.75" customHeight="1">
       <c r="A39" s="149" t="s">
         <v>78</v>
       </c>
@@ -9014,7 +9250,7 @@
       <c r="AK39" s="19"/>
       <c r="AL39" s="33"/>
     </row>
-    <row r="40" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="21" customHeight="1">
       <c r="A40" s="257" t="s">
         <v>79</v>
       </c>
@@ -9118,7 +9354,7 @@
       <c r="AK40" s="156"/>
       <c r="AL40" s="94"/>
     </row>
-    <row r="41" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="22.5" customHeight="1">
       <c r="A41" s="208" t="s">
         <v>80</v>
       </c>
@@ -9188,7 +9424,7 @@
       <c r="AK41" s="165"/>
       <c r="AL41" s="1"/>
     </row>
-    <row r="42" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="23.25" customHeight="1">
       <c r="A42" s="90" t="s">
         <v>86</v>
       </c>
@@ -9244,7 +9480,7 @@
       <c r="AK42" s="101"/>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="21.75" customHeight="1">
       <c r="A43" s="208" t="s">
         <v>39</v>
       </c>
@@ -9324,7 +9560,7 @@
       <c r="AK43" s="91"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="24.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>18</v>
       </c>
@@ -9398,7 +9634,7 @@
       <c r="AK44" s="158"/>
       <c r="AL44" s="13"/>
     </row>
-    <row r="45" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="25.5" customHeight="1">
       <c r="A45" s="12" t="s">
         <v>19</v>
       </c>
@@ -9472,7 +9708,7 @@
       <c r="AK45" s="157"/>
       <c r="AL45" s="15"/>
     </row>
-    <row r="46" spans="1:38" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" ht="24.75" customHeight="1" thickBot="1">
       <c r="A46" s="154" t="s">
         <v>29</v>
       </c>
@@ -9546,7 +9782,7 @@
       <c r="AK46" s="102"/>
       <c r="AL46" s="1"/>
     </row>
-    <row r="47" spans="1:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" ht="10.5" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
       <c r="B47" s="111"/>
       <c r="C47" s="111"/>
@@ -9586,59 +9822,59 @@
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
     </row>
-    <row r="48" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
       <c r="A48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="396" t="s">
+      <c r="B48" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="397"/>
-      <c r="D48" s="397"/>
-      <c r="E48" s="397"/>
-      <c r="F48" s="397"/>
-      <c r="G48" s="397"/>
-      <c r="H48" s="401"/>
-      <c r="I48" s="396" t="s">
+      <c r="C48" s="408"/>
+      <c r="D48" s="408"/>
+      <c r="E48" s="408"/>
+      <c r="F48" s="408"/>
+      <c r="G48" s="408"/>
+      <c r="H48" s="412"/>
+      <c r="I48" s="407" t="s">
         <v>67</v>
       </c>
-      <c r="J48" s="397"/>
-      <c r="K48" s="397"/>
-      <c r="L48" s="397"/>
-      <c r="M48" s="397"/>
-      <c r="N48" s="397"/>
-      <c r="O48" s="397"/>
-      <c r="P48" s="397" t="s">
+      <c r="J48" s="408"/>
+      <c r="K48" s="408"/>
+      <c r="L48" s="408"/>
+      <c r="M48" s="408"/>
+      <c r="N48" s="408"/>
+      <c r="O48" s="408"/>
+      <c r="P48" s="408" t="s">
         <v>36</v>
       </c>
-      <c r="Q48" s="397"/>
-      <c r="R48" s="397"/>
-      <c r="S48" s="397"/>
-      <c r="T48" s="397"/>
-      <c r="U48" s="397"/>
-      <c r="V48" s="397"/>
-      <c r="W48" s="396" t="s">
+      <c r="Q48" s="408"/>
+      <c r="R48" s="408"/>
+      <c r="S48" s="408"/>
+      <c r="T48" s="408"/>
+      <c r="U48" s="408"/>
+      <c r="V48" s="408"/>
+      <c r="W48" s="407" t="s">
         <v>32</v>
       </c>
-      <c r="X48" s="397"/>
-      <c r="Y48" s="397"/>
-      <c r="Z48" s="397"/>
-      <c r="AA48" s="397"/>
-      <c r="AB48" s="397"/>
-      <c r="AC48" s="397"/>
-      <c r="AD48" s="396" t="s">
+      <c r="X48" s="408"/>
+      <c r="Y48" s="408"/>
+      <c r="Z48" s="408"/>
+      <c r="AA48" s="408"/>
+      <c r="AB48" s="408"/>
+      <c r="AC48" s="408"/>
+      <c r="AD48" s="407" t="s">
         <v>46</v>
       </c>
-      <c r="AE48" s="397"/>
-      <c r="AF48" s="397"/>
-      <c r="AG48" s="397"/>
-      <c r="AH48" s="397"/>
-      <c r="AI48" s="397"/>
-      <c r="AJ48" s="398"/>
+      <c r="AE48" s="408"/>
+      <c r="AF48" s="408"/>
+      <c r="AG48" s="408"/>
+      <c r="AH48" s="408"/>
+      <c r="AI48" s="408"/>
+      <c r="AJ48" s="409"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -9678,257 +9914,249 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="P62" s="34"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="P63" s="34"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="P64" s="34"/>
     </row>
-    <row r="68" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="16:18">
       <c r="P68" s="34"/>
     </row>
-    <row r="69" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="16:18">
       <c r="P69" s="34"/>
     </row>
-    <row r="70" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="16:18">
       <c r="P70" s="34"/>
       <c r="Q70" s="34"/>
     </row>
-    <row r="71" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="16:18">
       <c r="P71" s="34"/>
     </row>
-    <row r="72" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="16:18">
       <c r="Q72" s="34"/>
     </row>
-    <row r="74" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="16:18">
       <c r="R74" s="34"/>
     </row>
-    <row r="75" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="16:18">
       <c r="Q75" s="34"/>
     </row>
-    <row r="76" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="16:18">
       <c r="P76" s="34"/>
       <c r="Q76" s="34"/>
     </row>
-    <row r="77" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="16:18">
       <c r="Q77" s="34"/>
     </row>
-    <row r="78" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="16:18">
       <c r="Q78" s="34"/>
     </row>
-    <row r="84" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="17:19">
       <c r="S84" s="34"/>
     </row>
-    <row r="85" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="17:19">
       <c r="R85" s="34"/>
     </row>
-    <row r="86" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="17:19">
       <c r="R86" s="34"/>
     </row>
-    <row r="87" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="17:19">
       <c r="R87" s="34"/>
     </row>
-    <row r="88" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="17:19">
       <c r="R88" s="34"/>
     </row>
-    <row r="89" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="17:19">
       <c r="R89" s="34"/>
     </row>
-    <row r="90" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="17:19">
       <c r="Q90" s="34"/>
       <c r="R90" s="34"/>
     </row>
-    <row r="91" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="17:19">
       <c r="Q91" s="34"/>
       <c r="R91" s="34"/>
     </row>
-    <row r="92" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="17:19">
       <c r="R92" s="34"/>
     </row>
-    <row r="93" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="17:19">
       <c r="R93" s="34"/>
     </row>
-    <row r="94" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="17:19">
       <c r="R94" s="34"/>
     </row>
-    <row r="95" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="17:19">
       <c r="R95" s="34"/>
     </row>
-    <row r="96" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="17:19">
       <c r="S96" s="34"/>
     </row>
-    <row r="97" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="15:22">
       <c r="R97" s="34"/>
       <c r="S97" s="34"/>
     </row>
-    <row r="98" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="15:22">
       <c r="R98" s="34"/>
     </row>
-    <row r="100" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="15:22">
       <c r="R100" s="34"/>
     </row>
-    <row r="102" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="15:22">
       <c r="P102" s="34"/>
       <c r="Q102" s="34"/>
     </row>
-    <row r="103" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="15:22">
       <c r="Q103" s="34"/>
     </row>
-    <row r="104" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="15:22">
       <c r="Q104" s="34"/>
     </row>
-    <row r="105" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="15:22">
       <c r="Q105" s="34"/>
       <c r="R105" s="34"/>
     </row>
-    <row r="106" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="15:22">
       <c r="O106" s="34"/>
       <c r="Q106" s="34"/>
     </row>
-    <row r="107" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="15:22">
       <c r="O107" s="34"/>
       <c r="Q107" s="34"/>
       <c r="R107" s="34"/>
     </row>
-    <row r="108" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="15:22">
       <c r="P108" s="34"/>
       <c r="Q108" s="34"/>
       <c r="R108" s="34"/>
     </row>
-    <row r="109" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="15:22">
       <c r="O109" s="34"/>
       <c r="Q109" s="34"/>
       <c r="R109" s="34"/>
     </row>
-    <row r="110" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="15:22">
       <c r="O110" s="34"/>
       <c r="Q110" s="34"/>
       <c r="R110" s="34"/>
     </row>
-    <row r="111" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="15:22">
       <c r="O111" s="34"/>
       <c r="Q111" s="34"/>
       <c r="R111" s="34"/>
     </row>
-    <row r="112" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="15:22">
       <c r="P112" s="34"/>
       <c r="Q112" s="34"/>
       <c r="R112" s="34"/>
       <c r="V112" s="34"/>
     </row>
-    <row r="113" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="15:24">
       <c r="P113" s="34"/>
       <c r="Q113" s="34"/>
     </row>
-    <row r="114" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="15:24">
       <c r="P114" s="34"/>
       <c r="Q114" s="34"/>
     </row>
-    <row r="115" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="15:24">
       <c r="P115" s="34"/>
       <c r="Q115" s="34"/>
       <c r="S115" s="34"/>
     </row>
-    <row r="116" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="15:24">
       <c r="P116" s="34"/>
       <c r="Q116" s="34"/>
       <c r="R116" s="34"/>
       <c r="S116" s="34"/>
     </row>
-    <row r="117" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="15:24">
       <c r="O117" s="34"/>
       <c r="Q117" s="34"/>
     </row>
-    <row r="118" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="15:24">
       <c r="P118" s="34"/>
       <c r="Q118" s="34"/>
     </row>
-    <row r="119" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="15:24">
       <c r="P119" s="34"/>
       <c r="Q119" s="34"/>
       <c r="R119" s="34"/>
       <c r="T119" s="34"/>
     </row>
-    <row r="120" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="15:24">
       <c r="Q120" s="34"/>
       <c r="R120" s="34"/>
     </row>
-    <row r="121" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="15:24">
       <c r="Q121" s="34"/>
     </row>
-    <row r="122" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="15:24">
       <c r="Q122" s="34"/>
       <c r="T122" s="34"/>
     </row>
-    <row r="123" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="15:24">
       <c r="P123" s="34"/>
       <c r="Q123" s="34"/>
       <c r="R123" s="34"/>
     </row>
-    <row r="124" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="15:24">
       <c r="R124" s="34"/>
     </row>
-    <row r="125" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="15:24">
       <c r="R125" s="34"/>
     </row>
-    <row r="126" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="15:24">
       <c r="R126" s="34"/>
       <c r="U126" s="34"/>
     </row>
-    <row r="127" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="15:24">
       <c r="R127" s="34"/>
       <c r="V127" s="34"/>
       <c r="W127" s="34"/>
       <c r="X127" s="34"/>
     </row>
-    <row r="128" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="15:24">
       <c r="R128" s="34"/>
       <c r="V128" s="34"/>
       <c r="W128" s="34"/>
       <c r="X128" s="34"/>
     </row>
-    <row r="129" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="18:22">
       <c r="V129" s="34"/>
     </row>
-    <row r="130" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="18:22">
       <c r="R130" s="34"/>
       <c r="V130" s="34"/>
     </row>
-    <row r="131" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="18:22">
       <c r="R131" s="34"/>
       <c r="V131" s="34"/>
     </row>
-    <row r="132" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="18:22">
       <c r="R132" s="34"/>
     </row>
-    <row r="133" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="18:22">
       <c r="R133" s="34"/>
     </row>
-    <row r="134" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="18:22">
       <c r="R134" s="34"/>
     </row>
-    <row r="135" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="18:22">
       <c r="R135" s="34"/>
     </row>
-    <row r="136" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="18:22">
       <c r="R136" s="34"/>
     </row>
-    <row r="137" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="18:22">
       <c r="R137" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="AD48:AJ48"/>
     <mergeCell ref="W48:AC48"/>
     <mergeCell ref="B14:C14"/>
@@ -9939,6 +10167,14 @@
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="U27:V27"/>
     <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -9948,14 +10184,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
@@ -9963,21 +10199,21 @@
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="18.75">
       <c r="B1" s="171"/>
-      <c r="C1" s="415" t="s">
+      <c r="C1" s="416" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="415"/>
-      <c r="E1" s="415"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="416"/>
+      <c r="E1" s="416"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.75" thickBot="1">
       <c r="B2" s="171"/>
       <c r="C2" s="297"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1">
       <c r="B3" s="171"/>
       <c r="C3" s="40"/>
       <c r="D3" s="21" t="s">
@@ -9987,13 +10223,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1">
       <c r="B4" s="171"/>
       <c r="C4" s="172"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1">
       <c r="B5" s="171"/>
       <c r="C5" s="173"/>
       <c r="D5" s="21" t="s">
@@ -10003,13 +10239,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1">
       <c r="B6" s="171"/>
       <c r="C6" s="297"/>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1">
       <c r="B7" s="171"/>
       <c r="C7" s="36"/>
       <c r="D7" s="21" t="s">
@@ -10019,13 +10255,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1">
       <c r="B8" s="171"/>
       <c r="C8" s="297"/>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1">
       <c r="B9" s="171"/>
       <c r="C9" s="35"/>
       <c r="D9" s="174" t="s">
@@ -10035,13 +10271,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1">
       <c r="B10" s="171"/>
       <c r="C10" s="297"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18.75" thickBot="1">
       <c r="B11" s="171"/>
       <c r="C11" s="23"/>
       <c r="D11" s="21" t="s">
@@ -10051,13 +10287,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1">
       <c r="B12" s="171"/>
       <c r="C12" s="175"/>
       <c r="D12" s="176"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="171"/>
       <c r="C13" s="114"/>
       <c r="D13" s="21" t="s">
@@ -10067,14 +10303,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="18.75" thickBot="1">
       <c r="B14" s="171"/>
       <c r="C14" s="298"/>
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1">
       <c r="B15" s="171"/>
       <c r="C15" s="24"/>
       <c r="D15" s="21" t="s">
@@ -10084,13 +10320,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1">
       <c r="B16" s="171"/>
       <c r="C16" s="299"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="2:5" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="19.5" thickTop="1" thickBot="1">
       <c r="B17" s="171"/>
       <c r="C17" s="300"/>
       <c r="D17" s="21" t="s">
@@ -10100,13 +10336,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="19.5" thickTop="1" thickBot="1">
       <c r="B18" s="171"/>
       <c r="C18" s="297"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="18.75" thickBot="1">
       <c r="B19" s="171"/>
       <c r="C19" s="25"/>
       <c r="D19" s="21" t="s">
@@ -10116,13 +10352,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="18.75" thickBot="1">
       <c r="B20" s="171"/>
       <c r="C20" s="297"/>
       <c r="D20" s="21"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="18.75" thickBot="1">
       <c r="B21" s="171"/>
       <c r="C21" s="26"/>
       <c r="D21" s="21" t="s">
@@ -10132,13 +10368,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="18.75" thickBot="1">
       <c r="B22" s="171"/>
       <c r="C22" s="297"/>
       <c r="D22" s="301"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="18.75" thickBot="1">
       <c r="B23" s="171"/>
       <c r="C23" s="42"/>
       <c r="D23" s="21" t="s">
@@ -10148,13 +10384,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="18.75" thickBot="1">
       <c r="B24" s="171"/>
       <c r="C24" s="297"/>
       <c r="D24" s="21"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="18.75" thickBot="1">
       <c r="B25" s="171"/>
       <c r="C25" s="27"/>
       <c r="D25" s="21" t="s">
@@ -10164,13 +10400,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="18.75" thickBot="1">
       <c r="B26" s="171"/>
       <c r="C26" s="297"/>
       <c r="D26" s="21"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="18.75" thickBot="1">
       <c r="B27" s="171"/>
       <c r="C27" s="28"/>
       <c r="D27" s="21" t="s">
@@ -10180,13 +10416,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="15.75" thickBot="1">
       <c r="B28" s="171"/>
       <c r="C28" s="297"/>
       <c r="D28" s="297"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" ht="21" thickBot="1">
       <c r="B29" s="171"/>
       <c r="C29" s="29"/>
       <c r="D29" s="21" t="s">
@@ -10196,13 +10432,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="15.75" thickBot="1">
       <c r="B30" s="171"/>
       <c r="C30" s="297"/>
       <c r="D30" s="297"/>
       <c r="E30" s="297"/>
     </row>
-    <row r="31" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="18.75" thickBot="1">
       <c r="B31" s="171"/>
       <c r="C31" s="39"/>
       <c r="D31" s="21" t="s">
@@ -10212,13 +10448,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="15.75" thickBot="1">
       <c r="B32" s="171"/>
       <c r="C32" s="297"/>
       <c r="D32" s="297"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="18.75" thickBot="1">
       <c r="B33" s="171"/>
       <c r="C33" s="30"/>
       <c r="D33" s="21" t="s">
@@ -10228,13 +10464,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15.75" thickBot="1">
       <c r="B34" s="171"/>
       <c r="C34" s="297"/>
       <c r="D34" s="297"/>
       <c r="E34" s="297"/>
     </row>
-    <row r="35" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="18.75" thickBot="1">
       <c r="B35" s="171"/>
       <c r="C35" s="31"/>
       <c r="D35" s="21" t="s">
@@ -10244,12 +10480,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="15.75" thickBot="1">
       <c r="C36" s="297"/>
       <c r="D36" s="297"/>
       <c r="E36" s="297"/>
     </row>
-    <row r="37" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="18.75" thickBot="1">
       <c r="C37" s="177"/>
       <c r="D37" s="21" t="s">
         <v>22</v>
@@ -10258,12 +10494,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="15.75" thickBot="1">
       <c r="C38" s="171"/>
       <c r="D38" s="171"/>
       <c r="E38" s="171"/>
     </row>
-    <row r="39" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="18.75" thickBot="1">
       <c r="C39" s="285"/>
       <c r="D39" s="21" t="s">
         <v>22</v>
